--- a/additional datasets/Speed Test - Broadband.xlsx
+++ b/additional datasets/Speed Test - Broadband.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\web-ml-env\additional datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED19D802-1E12-4A61-A6A6-E3726640E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C950B6C-1685-41CF-AA75-C675C334181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{1932B57A-A502-4192-BB97-8DAE5A75324E}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3098F8-8C0C-4F7B-96EC-92BF88602AFE}">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -914,2117 +914,2117 @@
         <v>416.1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>397.41</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>397.41</v>
+        <v>348.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>347.44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>348.02</v>
+        <v>347.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>337.86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>347.44</v>
+        <v>315.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>306.14999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>347.13</v>
+        <v>286.58999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>284.99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>-2</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>337.86</v>
+        <v>281.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>281.31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>315.05</v>
+        <v>274.35000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>274.20999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>306.14999999999998</v>
+        <v>272.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>268.82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>286.58999999999997</v>
+        <v>268.58999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>256.52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>284.99</v>
+        <v>248.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>247.37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>281.39999999999998</v>
+        <v>245.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>243.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>281.31</v>
+        <v>235.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>226.19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>274.35000000000002</v>
+        <v>222.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>216.96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>274.20999999999998</v>
+        <v>214.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>214.57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>272.99</v>
+        <v>208.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>207.62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>268.82</v>
+        <v>205.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>205.6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>268.58999999999997</v>
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>203.97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>256.52</v>
+        <v>203.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>197.27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>248.85</v>
+        <v>194.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>184.18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>247.37</v>
+        <v>174.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>171.02</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>245.44</v>
+        <v>166.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>165.48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D44">
-        <v>243.9</v>
+        <v>161.77000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>160.79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>235.59</v>
+        <v>159.52000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>158.62</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B48">
+        <v>-5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>157.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48">
-        <v>226.19</v>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>156.53</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>222.3</v>
+        <v>155.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>151.41</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>216.96</v>
+        <v>141.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>139.1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>214.96</v>
+        <v>132.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>132.47999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-1</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>214.57</v>
+        <v>131.02000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>116.76</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>208.11</v>
+        <v>114.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>113.34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>30</v>
-      </c>
-      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D60">
-        <v>207.62</v>
+        <v>113.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>106.33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D62">
-        <v>205.8</v>
+        <v>103.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>102.67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>205.6</v>
+        <v>100.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>100.34</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D66">
-        <v>204.8</v>
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67">
+        <v>94.42</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68">
-        <v>203.97</v>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>94.21</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D70">
-        <v>203.36</v>
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>93.19</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D72">
-        <v>197.27</v>
+        <v>93.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>92.79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D74">
-        <v>194.16</v>
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>92.12</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>91.79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76">
-        <v>184.18</v>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>91.62</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78">
-        <v>174.35</v>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>91.34</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D80">
-        <v>171.02</v>
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>89.97</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D82">
-        <v>166.28</v>
+        <v>89.88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83">
+        <v>89.34</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D84">
-        <v>165.48</v>
+        <v>89.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>-9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>88.77</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D86">
-        <v>161.77000000000001</v>
+        <v>87.59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>87.17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D88">
-        <v>160.79</v>
+        <v>87.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89">
+        <v>85.41</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D90">
-        <v>159.52000000000001</v>
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>81.209999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D92">
-        <v>158.62</v>
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>81.13</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D94">
-        <v>157.57</v>
+        <v>79.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>75.34</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D96">
-        <v>156.53</v>
+        <v>73.069999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97">
+        <v>64.37</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D98">
-        <v>155.71</v>
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>61.67</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D100">
-        <v>151.41</v>
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101">
+        <v>57.32</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D102">
-        <v>141.01</v>
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103">
+        <v>55.45</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D104">
-        <v>139.1</v>
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105">
+        <v>55.02</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D106">
-        <v>132.79</v>
+        <v>54.21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>53.51</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D108">
-        <v>132.47999999999999</v>
+        <v>52.92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109">
+        <v>50.88</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D110">
-        <v>131.02000000000001</v>
+        <v>49.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111">
+        <v>49.53</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D112">
-        <v>116.76</v>
+        <v>48.39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113">
+        <v>45.49</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D114">
-        <v>114.54</v>
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115">
+        <v>44.62</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D116">
-        <v>113.34</v>
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117">
+        <v>44.22</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>59</v>
-      </c>
-      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D118">
-        <v>113.33</v>
+        <v>43.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <v>41.98</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D120">
-        <v>106.33</v>
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>39.590000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D122">
-        <v>103.91</v>
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123">
+        <v>37.49</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>62</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D124">
-        <v>102.67</v>
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125">
+        <v>37.1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D126">
-        <v>100.94</v>
+        <v>35.93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>35.79</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="D128">
-        <v>100.34</v>
+        <v>35.64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>-2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129">
+        <v>35.57</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D130">
-        <v>96.6</v>
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131">
+        <v>30.29</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D132">
-        <v>94.42</v>
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133">
+        <v>28.66</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D134">
-        <v>94.36</v>
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135">
+        <v>23.48</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>68</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D136">
-        <v>94.21</v>
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137">
+        <v>22.11</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>69</v>
-      </c>
-      <c r="B138">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D138">
-        <v>93.33</v>
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139">
+        <v>20.67</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D140">
-        <v>93.19</v>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141">
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D142">
-        <v>93.03</v>
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143">
+        <v>18.61</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="C144" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D144">
-        <v>92.79</v>
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145">
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D146">
-        <v>92.66</v>
+        <v>18.059999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147">
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D148">
-        <v>92.12</v>
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149">
+        <v>14.79</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D150">
-        <v>91.79</v>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151">
+        <v>4.79</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D152">
-        <v>91.62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A154">
-        <v>77</v>
-      </c>
-      <c r="B154">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>79</v>
-      </c>
-      <c r="D154">
-        <v>91.38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156">
-        <v>78</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>80</v>
-      </c>
-      <c r="D156">
-        <v>91.34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A158">
-        <v>79</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="C158" t="s">
-        <v>81</v>
-      </c>
-      <c r="D158">
-        <v>90.91</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A160">
-        <v>80</v>
-      </c>
-      <c r="B160">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>82</v>
-      </c>
-      <c r="D160">
-        <v>89.97</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A162">
-        <v>81</v>
-      </c>
-      <c r="B162">
-        <v>5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>83</v>
-      </c>
-      <c r="D162">
-        <v>89.88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A164">
-        <v>82</v>
-      </c>
-      <c r="B164">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
-        <v>84</v>
-      </c>
-      <c r="D164">
-        <v>89.34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A166">
-        <v>83</v>
-      </c>
-      <c r="B166">
-        <v>7</v>
-      </c>
-      <c r="C166" t="s">
-        <v>85</v>
-      </c>
-      <c r="D166">
-        <v>89.22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A168">
-        <v>84</v>
-      </c>
-      <c r="B168">
-        <v>-9</v>
-      </c>
-      <c r="C168" t="s">
-        <v>86</v>
-      </c>
-      <c r="D168">
-        <v>88.77</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A170">
-        <v>85</v>
-      </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>87</v>
-      </c>
-      <c r="D170">
-        <v>87.59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A172">
-        <v>86</v>
-      </c>
-      <c r="B172">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
-        <v>88</v>
-      </c>
-      <c r="D172">
-        <v>87.17</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A174">
-        <v>87</v>
-      </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-      <c r="C174" t="s">
-        <v>89</v>
-      </c>
-      <c r="D174">
-        <v>87.11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A176">
-        <v>88</v>
-      </c>
-      <c r="B176">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>90</v>
-      </c>
-      <c r="D176">
-        <v>85.41</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A178">
-        <v>89</v>
-      </c>
-      <c r="B178">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s">
-        <v>91</v>
-      </c>
-      <c r="D178">
-        <v>84.38</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A180">
-        <v>90</v>
-      </c>
-      <c r="B180">
-        <v>6</v>
-      </c>
-      <c r="C180" t="s">
-        <v>92</v>
-      </c>
-      <c r="D180">
-        <v>81.209999999999994</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A182">
-        <v>91</v>
-      </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>93</v>
-      </c>
-      <c r="D182">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A184">
-        <v>92</v>
-      </c>
-      <c r="B184">
-        <v>3</v>
-      </c>
-      <c r="C184" t="s">
-        <v>94</v>
-      </c>
-      <c r="D184">
-        <v>81.13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A186">
-        <v>93</v>
-      </c>
-      <c r="B186">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186">
-        <v>79.44</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A188">
-        <v>94</v>
-      </c>
-      <c r="B188">
-        <v>5</v>
-      </c>
-      <c r="C188" t="s">
-        <v>96</v>
-      </c>
-      <c r="D188">
-        <v>75.34</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A190">
-        <v>95</v>
-      </c>
-      <c r="B190">
-        <v>3</v>
-      </c>
-      <c r="C190" t="s">
-        <v>97</v>
-      </c>
-      <c r="D190">
-        <v>73.069999999999993</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>96</v>
-      </c>
-      <c r="B192">
-        <v>4</v>
-      </c>
-      <c r="C192" t="s">
-        <v>98</v>
-      </c>
-      <c r="D192">
-        <v>64.37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A194">
-        <v>97</v>
-      </c>
-      <c r="B194">
-        <v>4</v>
-      </c>
-      <c r="C194" t="s">
-        <v>99</v>
-      </c>
-      <c r="D194">
-        <v>62.99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A196">
-        <v>98</v>
-      </c>
-      <c r="B196">
-        <v>4</v>
-      </c>
-      <c r="C196" t="s">
-        <v>100</v>
-      </c>
-      <c r="D196">
-        <v>61.67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A198">
-        <v>99</v>
-      </c>
-      <c r="B198">
-        <v>4</v>
-      </c>
-      <c r="C198" t="s">
-        <v>101</v>
-      </c>
-      <c r="D198">
-        <v>59.45</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A200">
-        <v>100</v>
-      </c>
-      <c r="B200">
-        <v>4</v>
-      </c>
-      <c r="C200" t="s">
-        <v>102</v>
-      </c>
-      <c r="D200">
-        <v>57.32</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A202">
-        <v>101</v>
-      </c>
-      <c r="B202">
-        <v>4</v>
-      </c>
-      <c r="C202" t="s">
-        <v>103</v>
-      </c>
-      <c r="D202">
-        <v>55.71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A204">
-        <v>102</v>
-      </c>
-      <c r="B204">
-        <v>4</v>
-      </c>
-      <c r="C204" t="s">
-        <v>104</v>
-      </c>
-      <c r="D204">
-        <v>55.45</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A206">
-        <v>103</v>
-      </c>
-      <c r="B206">
-        <v>6</v>
-      </c>
-      <c r="C206" t="s">
-        <v>105</v>
-      </c>
-      <c r="D206">
-        <v>55.13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A208">
-        <v>104</v>
-      </c>
-      <c r="B208">
-        <v>6</v>
-      </c>
-      <c r="C208" t="s">
-        <v>106</v>
-      </c>
-      <c r="D208">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A210">
-        <v>105</v>
-      </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-      <c r="C210" t="s">
-        <v>107</v>
-      </c>
-      <c r="D210">
-        <v>54.21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A212">
-        <v>106</v>
-      </c>
-      <c r="B212">
-        <v>5</v>
-      </c>
-      <c r="C212" t="s">
-        <v>108</v>
-      </c>
-      <c r="D212">
-        <v>53.51</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A214">
-        <v>107</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>109</v>
-      </c>
-      <c r="D214">
-        <v>52.92</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A216">
-        <v>108</v>
-      </c>
-      <c r="B216">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>110</v>
-      </c>
-      <c r="D216">
-        <v>50.88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A218">
-        <v>109</v>
-      </c>
-      <c r="B218">
-        <v>3</v>
-      </c>
-      <c r="C218" t="s">
-        <v>111</v>
-      </c>
-      <c r="D218">
-        <v>49.86</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A220">
-        <v>110</v>
-      </c>
-      <c r="B220">
-        <v>4</v>
-      </c>
-      <c r="C220" t="s">
-        <v>112</v>
-      </c>
-      <c r="D220">
-        <v>49.53</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A222">
-        <v>111</v>
-      </c>
-      <c r="B222">
-        <v>4</v>
-      </c>
-      <c r="C222" t="s">
-        <v>113</v>
-      </c>
-      <c r="D222">
-        <v>48.39</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A224">
-        <v>112</v>
-      </c>
-      <c r="B224">
-        <v>4</v>
-      </c>
-      <c r="C224" t="s">
-        <v>114</v>
-      </c>
-      <c r="D224">
-        <v>45.49</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A226">
-        <v>113</v>
-      </c>
-      <c r="B226">
-        <v>8</v>
-      </c>
-      <c r="C226" t="s">
-        <v>115</v>
-      </c>
-      <c r="D226">
-        <v>44.84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228">
-        <v>114</v>
-      </c>
-      <c r="B228">
-        <v>4</v>
-      </c>
-      <c r="C228" t="s">
-        <v>116</v>
-      </c>
-      <c r="D228">
-        <v>44.62</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A230">
-        <v>115</v>
-      </c>
-      <c r="B230">
-        <v>2</v>
-      </c>
-      <c r="C230" t="s">
-        <v>117</v>
-      </c>
-      <c r="D230">
-        <v>44.45</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A232">
-        <v>116</v>
-      </c>
-      <c r="B232">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>118</v>
-      </c>
-      <c r="D232">
-        <v>44.22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A234">
-        <v>117</v>
-      </c>
-      <c r="B234">
-        <v>2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>119</v>
-      </c>
-      <c r="D234">
-        <v>43.92</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236">
-        <v>118</v>
-      </c>
-      <c r="B236">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>120</v>
-      </c>
-      <c r="D236">
-        <v>41.98</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A238">
-        <v>119</v>
-      </c>
-      <c r="B238">
-        <v>6</v>
-      </c>
-      <c r="C238" t="s">
-        <v>121</v>
-      </c>
-      <c r="D238">
-        <v>41.77</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A240">
-        <v>120</v>
-      </c>
-      <c r="B240">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>122</v>
-      </c>
-      <c r="D240">
-        <v>39.590000000000003</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A242">
-        <v>121</v>
-      </c>
-      <c r="B242">
-        <v>2</v>
-      </c>
-      <c r="C242" t="s">
-        <v>123</v>
-      </c>
-      <c r="D242">
-        <v>38.549999999999997</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A244">
-        <v>122</v>
-      </c>
-      <c r="B244" t="s">
-        <v>2</v>
-      </c>
-      <c r="C244" t="s">
-        <v>124</v>
-      </c>
-      <c r="D244">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A246">
-        <v>123</v>
-      </c>
-      <c r="B246" t="s">
-        <v>2</v>
-      </c>
-      <c r="C246" t="s">
-        <v>125</v>
-      </c>
-      <c r="D246">
-        <v>37.39</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A248">
-        <v>124</v>
-      </c>
-      <c r="B248">
-        <v>3</v>
-      </c>
-      <c r="C248" t="s">
-        <v>126</v>
-      </c>
-      <c r="D248">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A250">
-        <v>125</v>
-      </c>
-      <c r="B250">
-        <v>4</v>
-      </c>
-      <c r="C250" t="s">
-        <v>127</v>
-      </c>
-      <c r="D250">
-        <v>35.93</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A252">
-        <v>126</v>
-      </c>
-      <c r="B252">
-        <v>5</v>
-      </c>
-      <c r="C252" t="s">
-        <v>128</v>
-      </c>
-      <c r="D252">
-        <v>35.79</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A254">
-        <v>127</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254" t="s">
-        <v>129</v>
-      </c>
-      <c r="D254">
-        <v>35.64</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A256">
-        <v>128</v>
-      </c>
-      <c r="B256">
-        <v>-2</v>
-      </c>
-      <c r="C256" t="s">
-        <v>130</v>
-      </c>
-      <c r="D256">
-        <v>35.57</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A258">
-        <v>129</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-      <c r="C258" t="s">
-        <v>131</v>
-      </c>
-      <c r="D258">
-        <v>32.450000000000003</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A260">
-        <v>130</v>
-      </c>
-      <c r="B260">
-        <v>2</v>
-      </c>
-      <c r="C260" t="s">
-        <v>132</v>
-      </c>
-      <c r="D260">
-        <v>30.29</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A262">
-        <v>131</v>
-      </c>
-      <c r="B262">
-        <v>2</v>
-      </c>
-      <c r="C262" t="s">
-        <v>133</v>
-      </c>
-      <c r="D262">
-        <v>30.02</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A264">
-        <v>132</v>
-      </c>
-      <c r="B264">
-        <v>2</v>
-      </c>
-      <c r="C264" t="s">
-        <v>134</v>
-      </c>
-      <c r="D264">
-        <v>28.66</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A266">
-        <v>133</v>
-      </c>
-      <c r="B266">
-        <v>2</v>
-      </c>
-      <c r="C266" t="s">
-        <v>135</v>
-      </c>
-      <c r="D266">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A268">
-        <v>134</v>
-      </c>
-      <c r="B268">
-        <v>2</v>
-      </c>
-      <c r="C268" t="s">
-        <v>136</v>
-      </c>
-      <c r="D268">
-        <v>23.48</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A270">
-        <v>135</v>
-      </c>
-      <c r="B270" t="s">
-        <v>2</v>
-      </c>
-      <c r="C270" t="s">
-        <v>137</v>
-      </c>
-      <c r="D270">
-        <v>23.26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A272">
-        <v>136</v>
-      </c>
-      <c r="B272">
-        <v>2</v>
-      </c>
-      <c r="C272" t="s">
-        <v>138</v>
-      </c>
-      <c r="D272">
-        <v>22.11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A274">
-        <v>137</v>
-      </c>
-      <c r="B274" t="s">
-        <v>2</v>
-      </c>
-      <c r="C274" t="s">
-        <v>139</v>
-      </c>
-      <c r="D274">
-        <v>22.05</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A276">
-        <v>138</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>140</v>
-      </c>
-      <c r="D276">
-        <v>20.67</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A278">
-        <v>139</v>
-      </c>
-      <c r="B278">
-        <v>3</v>
-      </c>
-      <c r="C278" t="s">
-        <v>141</v>
-      </c>
-      <c r="D278">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A280">
-        <v>140</v>
-      </c>
-      <c r="B280">
-        <v>3</v>
-      </c>
-      <c r="C280" t="s">
-        <v>142</v>
-      </c>
-      <c r="D280">
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A282">
-        <v>141</v>
-      </c>
-      <c r="B282">
-        <v>4</v>
-      </c>
-      <c r="C282" t="s">
-        <v>143</v>
-      </c>
-      <c r="D282">
-        <v>19.190000000000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A284">
-        <v>142</v>
-      </c>
-      <c r="B284">
-        <v>4</v>
-      </c>
-      <c r="C284" t="s">
-        <v>144</v>
-      </c>
-      <c r="D284">
-        <v>18.61</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A286">
-        <v>143</v>
-      </c>
-      <c r="B286">
-        <v>-3</v>
-      </c>
-      <c r="C286" t="s">
-        <v>145</v>
-      </c>
-      <c r="D286">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A288">
-        <v>144</v>
-      </c>
-      <c r="B288" t="s">
-        <v>2</v>
-      </c>
-      <c r="C288" t="s">
-        <v>146</v>
-      </c>
-      <c r="D288">
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A290">
-        <v>145</v>
-      </c>
-      <c r="B290">
-        <v>2</v>
-      </c>
-      <c r="C290" t="s">
-        <v>147</v>
-      </c>
-      <c r="D290">
-        <v>18.059999999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A292">
-        <v>146</v>
-      </c>
-      <c r="B292">
-        <v>2</v>
-      </c>
-      <c r="C292" t="s">
-        <v>148</v>
-      </c>
-      <c r="D292">
-        <v>16.190000000000001</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A294">
-        <v>147</v>
-      </c>
-      <c r="B294">
-        <v>2</v>
-      </c>
-      <c r="C294" t="s">
-        <v>149</v>
-      </c>
-      <c r="D294">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A296">
-        <v>148</v>
-      </c>
-      <c r="B296">
-        <v>2</v>
-      </c>
-      <c r="C296" t="s">
-        <v>150</v>
-      </c>
-      <c r="D296">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A298">
-        <v>149</v>
-      </c>
-      <c r="B298">
-        <v>4</v>
-      </c>
-      <c r="C298" t="s">
-        <v>151</v>
-      </c>
-      <c r="D298">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A300">
-        <v>150</v>
-      </c>
-      <c r="B300">
-        <v>4</v>
-      </c>
-      <c r="C300" t="s">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="D300">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A302">
-        <v>151</v>
-      </c>
-      <c r="B302">
-        <v>4</v>
-      </c>
-      <c r="C302" t="s">
-        <v>153</v>
-      </c>
-      <c r="D302">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A304">
-        <v>152</v>
-      </c>
-      <c r="B304">
-        <v>4</v>
-      </c>
-      <c r="C304" t="s">
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
         <v>154</v>
       </c>
-      <c r="D304">
+      <c r="D153">
         <v>3.85</v>
       </c>
     </row>
